--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H2">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>214.998999198222</v>
+        <v>218.7785543333333</v>
       </c>
       <c r="N2">
-        <v>214.998999198222</v>
+        <v>656.3356630000001</v>
       </c>
       <c r="O2">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="P2">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="Q2">
-        <v>10751.92659472636</v>
+        <v>11287.13055891067</v>
       </c>
       <c r="R2">
-        <v>10751.92659472636</v>
+        <v>101584.175030196</v>
       </c>
       <c r="S2">
-        <v>0.2213616653841874</v>
+        <v>0.2069972923552663</v>
       </c>
       <c r="T2">
-        <v>0.2213616653841874</v>
+        <v>0.2069972923552664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H3">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.1466192585527</v>
+        <v>46.29469433333333</v>
       </c>
       <c r="N3">
-        <v>46.1466192585527</v>
+        <v>138.884083</v>
       </c>
       <c r="O3">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="P3">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="Q3">
-        <v>2307.755220782663</v>
+        <v>2388.416271958065</v>
       </c>
       <c r="R3">
-        <v>2307.755220782663</v>
+        <v>21495.74644762259</v>
       </c>
       <c r="S3">
-        <v>0.04751227926184561</v>
+        <v>0.04380171725065026</v>
       </c>
       <c r="T3">
-        <v>0.04751227926184561</v>
+        <v>0.04380171725065027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H4">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.18118321266422</v>
+        <v>6.978882</v>
       </c>
       <c r="N4">
-        <v>6.18118321266422</v>
+        <v>20.936646</v>
       </c>
       <c r="O4">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741928</v>
       </c>
       <c r="P4">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741927</v>
       </c>
       <c r="Q4">
-        <v>309.1159885346582</v>
+        <v>360.0515257506199</v>
       </c>
       <c r="R4">
-        <v>309.1159885346582</v>
+        <v>3240.463731755579</v>
       </c>
       <c r="S4">
-        <v>0.006364108740518497</v>
+        <v>0.006603068029537681</v>
       </c>
       <c r="T4">
-        <v>0.006364108740518497</v>
+        <v>0.006603068029537682</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H5">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I5">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J5">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.74721051004838</v>
+        <v>7.105616</v>
       </c>
       <c r="N5">
-        <v>5.74721051004838</v>
+        <v>21.316848</v>
       </c>
       <c r="O5">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="P5">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="Q5">
-        <v>287.4133635920249</v>
+        <v>366.5899326278933</v>
       </c>
       <c r="R5">
-        <v>287.4133635920249</v>
+        <v>3299.309393651039</v>
       </c>
       <c r="S5">
-        <v>0.005917293078396505</v>
+        <v>0.006722977382304419</v>
       </c>
       <c r="T5">
-        <v>0.005917293078396505</v>
+        <v>0.006722977382304419</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>214.998999198222</v>
+        <v>218.7785543333333</v>
       </c>
       <c r="N6">
-        <v>214.998999198222</v>
+        <v>656.3356630000001</v>
       </c>
       <c r="O6">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="P6">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="Q6">
-        <v>4139.476569950688</v>
+        <v>4227.053994319333</v>
       </c>
       <c r="R6">
-        <v>4139.476569950688</v>
+        <v>38043.48594887399</v>
       </c>
       <c r="S6">
-        <v>0.08522392887173803</v>
+        <v>0.07752091879302773</v>
       </c>
       <c r="T6">
-        <v>0.08522392887173803</v>
+        <v>0.07752091879302773</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.1466192585527</v>
+        <v>46.29469433333333</v>
       </c>
       <c r="N7">
-        <v>46.1466192585527</v>
+        <v>138.884083</v>
       </c>
       <c r="O7">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="P7">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="Q7">
-        <v>888.4825041771346</v>
+        <v>894.4668877341313</v>
       </c>
       <c r="R7">
-        <v>888.4825041771346</v>
+        <v>8050.201989607182</v>
       </c>
       <c r="S7">
-        <v>0.01829216048459911</v>
+        <v>0.01640383469439344</v>
       </c>
       <c r="T7">
-        <v>0.01829216048459911</v>
+        <v>0.01640383469439344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J8">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.18118321266422</v>
+        <v>6.978882</v>
       </c>
       <c r="N8">
-        <v>6.18118321266422</v>
+        <v>20.936646</v>
       </c>
       <c r="O8">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741928</v>
       </c>
       <c r="P8">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741927</v>
       </c>
       <c r="Q8">
-        <v>119.0092194792303</v>
+        <v>134.84004921724</v>
       </c>
       <c r="R8">
-        <v>119.0092194792303</v>
+        <v>1213.56044295516</v>
       </c>
       <c r="S8">
-        <v>0.002450172886496084</v>
+        <v>0.002472862783268214</v>
       </c>
       <c r="T8">
-        <v>0.002450172886496084</v>
+        <v>0.002472862783268214</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J9">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.74721051004838</v>
+        <v>7.105616</v>
       </c>
       <c r="N9">
-        <v>5.74721051004838</v>
+        <v>21.316848</v>
       </c>
       <c r="O9">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="P9">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="Q9">
-        <v>110.6537394947853</v>
+        <v>137.2886962637867</v>
       </c>
       <c r="R9">
-        <v>110.6537394947853</v>
+        <v>1235.59826637408</v>
       </c>
       <c r="S9">
-        <v>0.002278149486955003</v>
+        <v>0.002517769086595125</v>
       </c>
       <c r="T9">
-        <v>0.002278149486955003</v>
+        <v>0.002517769086595125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H10">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I10">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J10">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>214.998999198222</v>
+        <v>218.7785543333333</v>
       </c>
       <c r="N10">
-        <v>214.998999198222</v>
+        <v>656.3356630000001</v>
       </c>
       <c r="O10">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="P10">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="Q10">
-        <v>21049.2596443754</v>
+        <v>24584.68595005639</v>
       </c>
       <c r="R10">
-        <v>21049.2596443754</v>
+        <v>221262.1735505075</v>
       </c>
       <c r="S10">
-        <v>0.4333641165545636</v>
+        <v>0.4508642297088282</v>
       </c>
       <c r="T10">
-        <v>0.4333641165545636</v>
+        <v>0.4508642297088283</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H11">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I11">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J11">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.1466192585527</v>
+        <v>46.29469433333333</v>
       </c>
       <c r="N11">
-        <v>46.1466192585527</v>
+        <v>138.884083</v>
       </c>
       <c r="O11">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="P11">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="Q11">
-        <v>4517.938102529748</v>
+        <v>5202.249026679151</v>
       </c>
       <c r="R11">
-        <v>4517.938102529748</v>
+        <v>46820.24124011237</v>
       </c>
       <c r="S11">
-        <v>0.09301573012683997</v>
+        <v>0.0954052455635219</v>
       </c>
       <c r="T11">
-        <v>0.09301573012683997</v>
+        <v>0.09540524556352192</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H12">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I12">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J12">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.18118321266422</v>
+        <v>6.978882</v>
       </c>
       <c r="N12">
-        <v>6.18118321266422</v>
+        <v>20.936646</v>
       </c>
       <c r="O12">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741928</v>
       </c>
       <c r="P12">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741927</v>
       </c>
       <c r="Q12">
-        <v>605.1624930256868</v>
+        <v>784.2341895681878</v>
       </c>
       <c r="R12">
-        <v>605.1624930256868</v>
+        <v>7058.107706113691</v>
       </c>
       <c r="S12">
-        <v>0.01245914172720615</v>
+        <v>0.01438225180135674</v>
       </c>
       <c r="T12">
-        <v>0.01245914172720615</v>
+        <v>0.01438225180135674</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H13">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I13">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J13">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.74721051004838</v>
+        <v>7.105616</v>
       </c>
       <c r="N13">
-        <v>5.74721051004838</v>
+        <v>21.316848</v>
       </c>
       <c r="O13">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="P13">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="Q13">
-        <v>562.6748343389124</v>
+        <v>798.4756018432106</v>
       </c>
       <c r="R13">
-        <v>562.6748343389124</v>
+        <v>7186.280416588896</v>
       </c>
       <c r="S13">
-        <v>0.01158440185595439</v>
+        <v>0.01464342834794302</v>
       </c>
       <c r="T13">
-        <v>0.01158440185595439</v>
+        <v>0.01464342834794302</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H14">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I14">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J14">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>214.998999198222</v>
+        <v>218.7785543333333</v>
       </c>
       <c r="N14">
-        <v>214.998999198222</v>
+        <v>656.3356630000001</v>
       </c>
       <c r="O14">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="P14">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="Q14">
-        <v>2301.279696802824</v>
+        <v>2635.169090767882</v>
       </c>
       <c r="R14">
-        <v>2301.279696802824</v>
+        <v>23716.52181691094</v>
       </c>
       <c r="S14">
-        <v>0.04737896057148962</v>
+        <v>0.04832697414460359</v>
       </c>
       <c r="T14">
-        <v>0.04737896057148962</v>
+        <v>0.04832697414460359</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H15">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I15">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J15">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.1466192585527</v>
+        <v>46.29469433333333</v>
       </c>
       <c r="N15">
-        <v>46.1466192585527</v>
+        <v>138.884083</v>
       </c>
       <c r="O15">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="P15">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="Q15">
-        <v>493.9384758618716</v>
+        <v>557.6156581959817</v>
       </c>
       <c r="R15">
-        <v>493.9384758618716</v>
+        <v>5018.540923763835</v>
       </c>
       <c r="S15">
-        <v>0.010169251310527</v>
+        <v>0.01022624225165406</v>
       </c>
       <c r="T15">
-        <v>0.010169251310527</v>
+        <v>0.01022624225165406</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H16">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I16">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J16">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.18118321266422</v>
+        <v>6.978882</v>
       </c>
       <c r="N16">
-        <v>6.18118321266422</v>
+        <v>20.936646</v>
       </c>
       <c r="O16">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741928</v>
       </c>
       <c r="P16">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741927</v>
       </c>
       <c r="Q16">
-        <v>66.16138439048258</v>
+        <v>84.06004048503</v>
       </c>
       <c r="R16">
-        <v>66.16138439048258</v>
+        <v>756.5403643652701</v>
       </c>
       <c r="S16">
-        <v>0.001362136739287638</v>
+        <v>0.001541596483256644</v>
       </c>
       <c r="T16">
-        <v>0.001362136739287638</v>
+        <v>0.001541596483256644</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H17">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I17">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J17">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.74721051004838</v>
+        <v>7.105616</v>
       </c>
       <c r="N17">
-        <v>5.74721051004838</v>
+        <v>21.316848</v>
       </c>
       <c r="O17">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="P17">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="Q17">
-        <v>61.51628104943996</v>
+        <v>85.58654074264001</v>
       </c>
       <c r="R17">
-        <v>61.51628104943996</v>
+        <v>770.27886668376</v>
       </c>
       <c r="S17">
-        <v>0.001266502919395379</v>
+        <v>0.001569591323792571</v>
       </c>
       <c r="T17">
-        <v>0.001266502919395379</v>
+        <v>0.001569591323792571</v>
       </c>
     </row>
   </sheetData>
